--- a/A-Gantt.xlsx
+++ b/A-Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UNLa\3er Año\Primer Cuatrimestre\Ingenieria de Software II\Gantt y Pert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro\Documents\GitHub\AyED\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,1702 +496,7 @@
     <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Valor del periodo" xfId="13"/>
   </cellStyles>
-  <dxfs count="402">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="282">
     <dxf>
       <fill>
         <patternFill>
@@ -6422,8 +4727,8 @@
   </sheetPr>
   <dimension ref="B1:AV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BQ19" sqref="BP19:BQ26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6867,610 +5172,610 @@
     <mergeCell ref="M2:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="I5:AV5 R6:AV6 C8:F8 C9:E9 W11:AV11 AB8:AV8 AA12:AV13 R9 C7:D7 S7:AV7 M8:P8 K7:L7 S10:AV10 V9:AV9 P11 C18:AV30 P12:R12 C12:G13 C14:J14 L13:R13 N14:AV14 C15:N15 C16:J16 R15:AV15 V16:AV16 C17:L17 T17:AV17">
-    <cfRule type="expression" dxfId="401" priority="457">
+    <cfRule type="expression" dxfId="281" priority="457">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="400" priority="459">
+    <cfRule type="expression" dxfId="280" priority="459">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="399" priority="460">
+    <cfRule type="expression" dxfId="279" priority="460">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="398" priority="461">
+    <cfRule type="expression" dxfId="278" priority="461">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="397" priority="462">
+    <cfRule type="expression" dxfId="277" priority="462">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="396" priority="463">
+    <cfRule type="expression" dxfId="276" priority="463">
       <formula>C$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="395" priority="467">
+    <cfRule type="expression" dxfId="275" priority="467">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="394" priority="468">
+    <cfRule type="expression" dxfId="274" priority="468">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:AV31">
-    <cfRule type="expression" dxfId="393" priority="458">
+    <cfRule type="expression" dxfId="273" priority="458">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:AV4">
-    <cfRule type="expression" dxfId="392" priority="464">
+    <cfRule type="expression" dxfId="272" priority="464">
       <formula>C$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="expression" dxfId="375" priority="265">
+    <cfRule type="expression" dxfId="271" priority="265">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="374" priority="266">
+    <cfRule type="expression" dxfId="270" priority="266">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="373" priority="267">
+    <cfRule type="expression" dxfId="269" priority="267">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="372" priority="268">
+    <cfRule type="expression" dxfId="268" priority="268">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="371" priority="269">
+    <cfRule type="expression" dxfId="267" priority="269">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="370" priority="270">
+    <cfRule type="expression" dxfId="266" priority="270">
       <formula>F$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="369" priority="271">
+    <cfRule type="expression" dxfId="265" priority="271">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="368" priority="272">
+    <cfRule type="expression" dxfId="264" priority="272">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:Q6">
-    <cfRule type="expression" dxfId="359" priority="385">
+    <cfRule type="expression" dxfId="263" priority="385">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="358" priority="386">
+    <cfRule type="expression" dxfId="262" priority="386">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="357" priority="387">
+    <cfRule type="expression" dxfId="261" priority="387">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="356" priority="388">
+    <cfRule type="expression" dxfId="260" priority="388">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="355" priority="389">
+    <cfRule type="expression" dxfId="259" priority="389">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="354" priority="390">
+    <cfRule type="expression" dxfId="258" priority="390">
       <formula>N$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="353" priority="391">
+    <cfRule type="expression" dxfId="257" priority="391">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="352" priority="392">
+    <cfRule type="expression" dxfId="256" priority="392">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8 V8 X8 Z8">
-    <cfRule type="expression" dxfId="287" priority="313">
+    <cfRule type="expression" dxfId="255" priority="313">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="286" priority="314">
+    <cfRule type="expression" dxfId="254" priority="314">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="285" priority="315">
+    <cfRule type="expression" dxfId="253" priority="315">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="284" priority="316">
+    <cfRule type="expression" dxfId="252" priority="316">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="283" priority="317">
+    <cfRule type="expression" dxfId="251" priority="317">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="282" priority="318">
+    <cfRule type="expression" dxfId="250" priority="318">
       <formula>T$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="281" priority="319">
+    <cfRule type="expression" dxfId="249" priority="319">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="280" priority="320">
+    <cfRule type="expression" dxfId="248" priority="320">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8 V8 X8 Z8">
-    <cfRule type="expression" dxfId="279" priority="305">
+    <cfRule type="expression" dxfId="247" priority="305">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="306">
+    <cfRule type="expression" dxfId="246" priority="306">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="277" priority="307">
+    <cfRule type="expression" dxfId="245" priority="307">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="308">
+    <cfRule type="expression" dxfId="244" priority="308">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="309">
+    <cfRule type="expression" dxfId="243" priority="309">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="274" priority="310">
+    <cfRule type="expression" dxfId="242" priority="310">
       <formula>T$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="311">
+    <cfRule type="expression" dxfId="241" priority="311">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="312">
+    <cfRule type="expression" dxfId="240" priority="312">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8 W8 Y8 AA8">
-    <cfRule type="expression" dxfId="271" priority="297">
+    <cfRule type="expression" dxfId="239" priority="297">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="298">
+    <cfRule type="expression" dxfId="238" priority="298">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="299">
+    <cfRule type="expression" dxfId="237" priority="299">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="268" priority="300">
+    <cfRule type="expression" dxfId="236" priority="300">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="267" priority="301">
+    <cfRule type="expression" dxfId="235" priority="301">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="266" priority="302">
+    <cfRule type="expression" dxfId="234" priority="302">
       <formula>U$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="303">
+    <cfRule type="expression" dxfId="233" priority="303">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="304">
+    <cfRule type="expression" dxfId="232" priority="304">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8 V8 X8 Z8">
-    <cfRule type="expression" dxfId="263" priority="289">
+    <cfRule type="expression" dxfId="231" priority="289">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="290">
+    <cfRule type="expression" dxfId="230" priority="290">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="291">
+    <cfRule type="expression" dxfId="229" priority="291">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="292">
+    <cfRule type="expression" dxfId="228" priority="292">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="293">
+    <cfRule type="expression" dxfId="227" priority="293">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="258" priority="294">
+    <cfRule type="expression" dxfId="226" priority="294">
       <formula>T$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="295">
+    <cfRule type="expression" dxfId="225" priority="295">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="296">
+    <cfRule type="expression" dxfId="224" priority="296">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="expression" dxfId="255" priority="281">
+    <cfRule type="expression" dxfId="223" priority="281">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="282">
+    <cfRule type="expression" dxfId="222" priority="282">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="283">
+    <cfRule type="expression" dxfId="221" priority="283">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="252" priority="284">
+    <cfRule type="expression" dxfId="220" priority="284">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="285">
+    <cfRule type="expression" dxfId="219" priority="285">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="250" priority="286">
+    <cfRule type="expression" dxfId="218" priority="286">
       <formula>R$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="287">
+    <cfRule type="expression" dxfId="217" priority="287">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="248" priority="288">
+    <cfRule type="expression" dxfId="216" priority="288">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:Q9">
-    <cfRule type="expression" dxfId="247" priority="273">
+    <cfRule type="expression" dxfId="215" priority="273">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="274">
+    <cfRule type="expression" dxfId="214" priority="274">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="275">
+    <cfRule type="expression" dxfId="213" priority="275">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="276">
+    <cfRule type="expression" dxfId="212" priority="276">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="277">
+    <cfRule type="expression" dxfId="211" priority="277">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="278">
+    <cfRule type="expression" dxfId="210" priority="278">
       <formula>P$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="279">
+    <cfRule type="expression" dxfId="209" priority="279">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="280">
+    <cfRule type="expression" dxfId="208" priority="280">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="239" priority="257">
+    <cfRule type="expression" dxfId="207" priority="257">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="238" priority="258">
+    <cfRule type="expression" dxfId="206" priority="258">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="237" priority="259">
+    <cfRule type="expression" dxfId="205" priority="259">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="236" priority="260">
+    <cfRule type="expression" dxfId="204" priority="260">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="235" priority="261">
+    <cfRule type="expression" dxfId="203" priority="261">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="262">
+    <cfRule type="expression" dxfId="202" priority="262">
       <formula>G$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="233" priority="263">
+    <cfRule type="expression" dxfId="201" priority="263">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="264">
+    <cfRule type="expression" dxfId="200" priority="264">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:M10">
-    <cfRule type="expression" dxfId="231" priority="477">
+    <cfRule type="expression" dxfId="199" priority="477">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="230" priority="478">
+    <cfRule type="expression" dxfId="198" priority="478">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="479">
+    <cfRule type="expression" dxfId="197" priority="479">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="480">
+    <cfRule type="expression" dxfId="196" priority="480">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="481">
+    <cfRule type="expression" dxfId="195" priority="481">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="482">
+    <cfRule type="expression" dxfId="194" priority="482">
       <formula>G$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="483">
+    <cfRule type="expression" dxfId="193" priority="483">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="484">
+    <cfRule type="expression" dxfId="192" priority="484">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q12:R12">
-    <cfRule type="expression" dxfId="199" priority="225">
+    <cfRule type="expression" dxfId="191" priority="225">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="226">
+    <cfRule type="expression" dxfId="190" priority="226">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="227">
+    <cfRule type="expression" dxfId="189" priority="227">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="228">
+    <cfRule type="expression" dxfId="188" priority="228">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="229">
+    <cfRule type="expression" dxfId="187" priority="229">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="230">
+    <cfRule type="expression" dxfId="186" priority="230">
       <formula>Q$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="231">
+    <cfRule type="expression" dxfId="185" priority="231">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="232">
+    <cfRule type="expression" dxfId="184" priority="232">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13:Z13">
-    <cfRule type="expression" dxfId="191" priority="217">
+    <cfRule type="expression" dxfId="183" priority="217">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="218">
+    <cfRule type="expression" dxfId="182" priority="218">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="219">
+    <cfRule type="expression" dxfId="181" priority="219">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="220">
+    <cfRule type="expression" dxfId="180" priority="220">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="221">
+    <cfRule type="expression" dxfId="179" priority="221">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="222">
+    <cfRule type="expression" dxfId="178" priority="222">
       <formula>R$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="223">
+    <cfRule type="expression" dxfId="177" priority="223">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="224">
+    <cfRule type="expression" dxfId="176" priority="224">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S12:U12">
-    <cfRule type="expression" dxfId="183" priority="209">
+    <cfRule type="expression" dxfId="175" priority="209">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="210">
+    <cfRule type="expression" dxfId="174" priority="210">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="211">
+    <cfRule type="expression" dxfId="173" priority="211">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="212">
+    <cfRule type="expression" dxfId="172" priority="212">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="213">
+    <cfRule type="expression" dxfId="171" priority="213">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="214">
+    <cfRule type="expression" dxfId="170" priority="214">
       <formula>S$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="215">
+    <cfRule type="expression" dxfId="169" priority="215">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="176" priority="216">
+    <cfRule type="expression" dxfId="168" priority="216">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11">
-    <cfRule type="expression" dxfId="175" priority="201">
+    <cfRule type="expression" dxfId="167" priority="201">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="202">
+    <cfRule type="expression" dxfId="166" priority="202">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="203">
+    <cfRule type="expression" dxfId="165" priority="203">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="204">
+    <cfRule type="expression" dxfId="164" priority="204">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="205">
+    <cfRule type="expression" dxfId="163" priority="205">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="206">
+    <cfRule type="expression" dxfId="162" priority="206">
       <formula>V$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="207">
+    <cfRule type="expression" dxfId="161" priority="207">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="208">
+    <cfRule type="expression" dxfId="160" priority="208">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11">
-    <cfRule type="expression" dxfId="167" priority="193">
+    <cfRule type="expression" dxfId="159" priority="193">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="194">
+    <cfRule type="expression" dxfId="158" priority="194">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="195">
+    <cfRule type="expression" dxfId="157" priority="195">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="196">
+    <cfRule type="expression" dxfId="156" priority="196">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="197">
+    <cfRule type="expression" dxfId="155" priority="197">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="198">
+    <cfRule type="expression" dxfId="154" priority="198">
       <formula>U$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="199">
+    <cfRule type="expression" dxfId="153" priority="199">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="200">
+    <cfRule type="expression" dxfId="152" priority="200">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X12">
-    <cfRule type="expression" dxfId="159" priority="185">
+    <cfRule type="expression" dxfId="151" priority="185">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="186">
+    <cfRule type="expression" dxfId="150" priority="186">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="187">
+    <cfRule type="expression" dxfId="149" priority="187">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="188">
+    <cfRule type="expression" dxfId="148" priority="188">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="189">
+    <cfRule type="expression" dxfId="147" priority="189">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="190">
+    <cfRule type="expression" dxfId="146" priority="190">
       <formula>X$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="191">
+    <cfRule type="expression" dxfId="145" priority="191">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="192">
+    <cfRule type="expression" dxfId="144" priority="192">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12">
-    <cfRule type="expression" dxfId="151" priority="177">
+    <cfRule type="expression" dxfId="143" priority="177">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="178">
+    <cfRule type="expression" dxfId="142" priority="178">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="179">
+    <cfRule type="expression" dxfId="141" priority="179">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="180">
+    <cfRule type="expression" dxfId="140" priority="180">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="181">
+    <cfRule type="expression" dxfId="139" priority="181">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="182">
+    <cfRule type="expression" dxfId="138" priority="182">
       <formula>Y$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="183">
+    <cfRule type="expression" dxfId="137" priority="183">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="184">
+    <cfRule type="expression" dxfId="136" priority="184">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z12">
-    <cfRule type="expression" dxfId="143" priority="169">
+    <cfRule type="expression" dxfId="135" priority="169">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="170">
+    <cfRule type="expression" dxfId="134" priority="170">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="171">
+    <cfRule type="expression" dxfId="133" priority="171">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="172">
+    <cfRule type="expression" dxfId="132" priority="172">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="173">
+    <cfRule type="expression" dxfId="131" priority="173">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="174">
+    <cfRule type="expression" dxfId="130" priority="174">
       <formula>Z$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="175">
+    <cfRule type="expression" dxfId="129" priority="175">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="136" priority="176">
+    <cfRule type="expression" dxfId="128" priority="176">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W12">
-    <cfRule type="expression" dxfId="135" priority="161">
+    <cfRule type="expression" dxfId="127" priority="161">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="162">
+    <cfRule type="expression" dxfId="126" priority="162">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="163">
+    <cfRule type="expression" dxfId="125" priority="163">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="164">
+    <cfRule type="expression" dxfId="124" priority="164">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="165">
+    <cfRule type="expression" dxfId="123" priority="165">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="166">
+    <cfRule type="expression" dxfId="122" priority="166">
       <formula>W$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="167">
+    <cfRule type="expression" dxfId="121" priority="167">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="168">
+    <cfRule type="expression" dxfId="120" priority="168">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V12">
-    <cfRule type="expression" dxfId="127" priority="153">
+    <cfRule type="expression" dxfId="119" priority="153">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="154">
+    <cfRule type="expression" dxfId="118" priority="154">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="155">
+    <cfRule type="expression" dxfId="117" priority="155">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="156">
+    <cfRule type="expression" dxfId="116" priority="156">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="157">
+    <cfRule type="expression" dxfId="115" priority="157">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="158">
+    <cfRule type="expression" dxfId="114" priority="158">
       <formula>V$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="159">
+    <cfRule type="expression" dxfId="113" priority="159">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="160">
+    <cfRule type="expression" dxfId="112" priority="160">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="expression" dxfId="119" priority="145">
+    <cfRule type="expression" dxfId="111" priority="145">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="146">
+    <cfRule type="expression" dxfId="110" priority="146">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="147">
+    <cfRule type="expression" dxfId="109" priority="147">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="148">
+    <cfRule type="expression" dxfId="108" priority="148">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="149">
+    <cfRule type="expression" dxfId="107" priority="149">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="150">
+    <cfRule type="expression" dxfId="106" priority="150">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="151">
+    <cfRule type="expression" dxfId="105" priority="151">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="152">
+    <cfRule type="expression" dxfId="104" priority="152">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="expression" dxfId="111" priority="137">
+    <cfRule type="expression" dxfId="103" priority="137">
       <formula>PorcentajeCompletado</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="138">
+    <cfRule type="expression" dxfId="102" priority="138">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="139">
+    <cfRule type="expression" dxfId="101" priority="139">
       <formula>Real</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="140">
+    <cfRule type="expression" dxfId="100" priority="140">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="141">
+    <cfRule type="expression" dxfId="99" priority="141">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="142">
+    <cfRule type="expression" dxfId="98" priority="142">
       <formula>J$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="143">
+    <cfRule type="expression" dxfId="97" priority="143">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="144">
+    <cfRule type="expression" dxfId="96" priority="144">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
